--- a/FieldData/2015/xlsx_analysis/02-005-D Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/02-005-D Field Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F3B7CB43EC6BBDA97B9CDF5C09137C6619685E5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82921EEB-1A7E-4CD0-AF8F-D01EEC150625}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F3B7CB43EC6BBDA97B9CDF5C09137C6619685E5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499D0AB3-E036-4D03-BC86-8011DFDC6A70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="86">
   <si>
     <t>Raw Sample Plot Data (Quadrats)</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1330,6 +1348,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,9 +1419,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -2766,10 +2784,10 @@
   <dimension ref="A1:IO71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,28 +2803,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="125" t="s">
+      <c r="E1" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="102" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2829,7 +2847,9 @@
       <c r="F2" s="93">
         <v>45</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,7 +2871,9 @@
       <c r="F3" s="93">
         <v>0.5</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2873,7 +2895,9 @@
       <c r="F4" s="93">
         <v>0.5</v>
       </c>
-      <c r="G4" s="90"/>
+      <c r="G4" s="90" t="s">
+        <v>83</v>
+      </c>
       <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2919,9 @@
       <c r="F5" s="93">
         <v>0.5</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,7 +2941,9 @@
       <c r="F6" s="93">
         <v>65</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="G6" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,7 +2965,9 @@
       <c r="F7" s="93">
         <v>30</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2959,7 +2989,9 @@
       <c r="F8" s="93">
         <v>1</v>
       </c>
-      <c r="G8" s="90"/>
+      <c r="G8" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,7 +3013,9 @@
       <c r="F9" s="93">
         <v>4</v>
       </c>
-      <c r="G9" s="90"/>
+      <c r="G9" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3003,7 +3037,9 @@
       <c r="F10" s="93">
         <v>0.5</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,7 +3061,9 @@
       <c r="F11" s="93">
         <v>0.5</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3047,7 +3085,9 @@
       <c r="F12" s="93">
         <v>0.5</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3069,7 +3109,9 @@
       <c r="F13" s="93">
         <v>1</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3089,7 +3131,9 @@
       <c r="F14" s="93">
         <v>65</v>
       </c>
-      <c r="G14" s="90"/>
+      <c r="G14" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,7 +3155,9 @@
       <c r="F15" s="93">
         <v>92</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3133,7 +3179,9 @@
       <c r="F16" s="93">
         <v>3</v>
       </c>
-      <c r="G16" s="90"/>
+      <c r="G16" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,7 +3201,9 @@
       <c r="F17" s="93">
         <v>5</v>
       </c>
-      <c r="G17" s="90"/>
+      <c r="G17" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3175,7 +3225,9 @@
       <c r="F18" s="93">
         <v>85</v>
       </c>
-      <c r="G18" s="90"/>
+      <c r="G18" s="90" t="s">
+        <v>83</v>
+      </c>
       <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,7 +3247,9 @@
       <c r="F19" s="93">
         <v>15</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,7 +3271,9 @@
       <c r="F20" s="93">
         <v>10</v>
       </c>
-      <c r="G20" s="90"/>
+      <c r="G20" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3239,7 +3295,9 @@
       <c r="F21" s="93">
         <v>4</v>
       </c>
-      <c r="G21" s="90"/>
+      <c r="G21" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,7 +3319,9 @@
       <c r="F22" s="93">
         <v>2</v>
       </c>
-      <c r="G22" s="90"/>
+      <c r="G22" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,7 +3343,9 @@
       <c r="F23" s="93">
         <v>0.5</v>
       </c>
-      <c r="G23" s="90"/>
+      <c r="G23" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,7 +3367,9 @@
       <c r="F24" s="93">
         <v>1</v>
       </c>
-      <c r="G24" s="90"/>
+      <c r="G24" s="90" t="s">
+        <v>83</v>
+      </c>
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,7 +3391,9 @@
       <c r="F25" s="93">
         <v>75</v>
       </c>
-      <c r="G25" s="90"/>
+      <c r="G25" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3349,7 +3415,9 @@
       <c r="F26" s="93">
         <v>1</v>
       </c>
-      <c r="G26" s="90"/>
+      <c r="G26" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,7 +3439,9 @@
       <c r="F27" s="93">
         <v>0.5</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,7 +3463,9 @@
       <c r="F28" s="93">
         <v>0.5</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H28" s="94"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,7 +3487,9 @@
       <c r="F29" s="93">
         <v>0.5</v>
       </c>
-      <c r="G29" s="90"/>
+      <c r="G29" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H29" s="94"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3511,9 @@
       <c r="F30" s="93">
         <v>0.5</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H30" s="94"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3457,7 +3533,9 @@
       <c r="F31" s="93">
         <v>10</v>
       </c>
-      <c r="G31" s="90"/>
+      <c r="G31" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H31" s="94"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3479,7 +3557,9 @@
       <c r="F32" s="93">
         <v>7</v>
       </c>
-      <c r="G32" s="90"/>
+      <c r="G32" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H32" s="94">
         <v>63</v>
       </c>
@@ -3503,7 +3583,9 @@
       <c r="F33" s="93">
         <v>20</v>
       </c>
-      <c r="G33" s="90"/>
+      <c r="G33" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H33" s="94"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3525,7 +3607,9 @@
       <c r="F34" s="93">
         <v>50</v>
       </c>
-      <c r="G34" s="90"/>
+      <c r="G34" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H34" s="94"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,7 +3631,9 @@
       <c r="F35" s="93">
         <v>5</v>
       </c>
-      <c r="G35" s="90"/>
+      <c r="G35" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H35" s="94">
         <v>63</v>
       </c>
@@ -3571,7 +3657,9 @@
       <c r="F36" s="93">
         <v>2</v>
       </c>
-      <c r="G36" s="90"/>
+      <c r="G36" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H36" s="94"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3593,7 +3681,9 @@
       <c r="F37" s="93">
         <v>4</v>
       </c>
-      <c r="G37" s="90"/>
+      <c r="G37" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H37" s="94"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3615,7 +3705,9 @@
       <c r="F38" s="93">
         <v>0.5</v>
       </c>
-      <c r="G38" s="90"/>
+      <c r="G38" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H38" s="94"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,7 +3729,9 @@
       <c r="F39" s="93">
         <v>0.5</v>
       </c>
-      <c r="G39" s="90"/>
+      <c r="G39" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H39" s="94"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,7 +3753,9 @@
       <c r="F40" s="93">
         <v>1</v>
       </c>
-      <c r="G40" s="90"/>
+      <c r="G40" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H40" s="94"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3777,9 @@
       <c r="F41" s="93">
         <v>0.5</v>
       </c>
-      <c r="G41" s="90"/>
+      <c r="G41" s="90" t="s">
+        <v>83</v>
+      </c>
       <c r="H41" s="94"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,10 +3797,11 @@
         <v>45</v>
       </c>
       <c r="F42" s="93">
-        <f>100-SUM(F32:F41)</f>
         <v>9.5</v>
       </c>
-      <c r="G42" s="90"/>
+      <c r="G42" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3724,7 +3823,9 @@
       <c r="F43" s="93">
         <v>5</v>
       </c>
-      <c r="G43" s="90"/>
+      <c r="G43" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H43" s="94"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3746,7 +3847,9 @@
       <c r="F44" s="93">
         <v>10</v>
       </c>
-      <c r="G44" s="90"/>
+      <c r="G44" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H44" s="94"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3768,7 +3871,9 @@
       <c r="F45" s="93">
         <v>5</v>
       </c>
-      <c r="G45" s="90"/>
+      <c r="G45" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H45" s="94"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,7 +3895,9 @@
       <c r="F46" s="93">
         <v>4</v>
       </c>
-      <c r="G46" s="90"/>
+      <c r="G46" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3812,7 +3919,9 @@
       <c r="F47" s="93">
         <v>5</v>
       </c>
-      <c r="G47" s="90"/>
+      <c r="G47" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H47" s="94"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,7 +3943,9 @@
       <c r="F48" s="93">
         <v>3</v>
       </c>
-      <c r="G48" s="90"/>
+      <c r="G48" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H48" s="94"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3856,7 +3967,9 @@
       <c r="F49" s="93">
         <v>1</v>
       </c>
-      <c r="G49" s="90"/>
+      <c r="G49" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H49" s="94"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3878,7 +3991,9 @@
       <c r="F50" s="93">
         <v>6</v>
       </c>
-      <c r="G50" s="90"/>
+      <c r="G50" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3900,7 +4015,9 @@
       <c r="F51" s="93">
         <v>0.5</v>
       </c>
-      <c r="G51" s="90"/>
+      <c r="G51" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H51" s="94"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3922,7 +4039,9 @@
       <c r="F52" s="93">
         <v>0.5</v>
       </c>
-      <c r="G52" s="90"/>
+      <c r="G52" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H52" s="94"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3944,7 +4063,9 @@
       <c r="F53" s="93">
         <v>1</v>
       </c>
-      <c r="G53" s="90"/>
+      <c r="G53" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H53" s="94"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3966,7 +4087,9 @@
       <c r="F54" s="93">
         <v>0.5</v>
       </c>
-      <c r="G54" s="90"/>
+      <c r="G54" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H54" s="94"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3988,7 +4111,9 @@
       <c r="F55" s="93">
         <v>0.5</v>
       </c>
-      <c r="G55" s="90"/>
+      <c r="G55" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H55" s="94"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4006,10 +4131,11 @@
         <v>45</v>
       </c>
       <c r="F56" s="93">
-        <f>100-SUM(F43:F55)</f>
         <v>58</v>
       </c>
-      <c r="G56" s="90"/>
+      <c r="G56" s="90" t="s">
+        <v>85</v>
+      </c>
       <c r="H56" s="94"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4031,7 +4157,9 @@
       <c r="F57" s="93">
         <v>75</v>
       </c>
-      <c r="G57" s="90"/>
+      <c r="G57" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="H57" s="94"/>
     </row>
     <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4053,7 +4181,9 @@
       <c r="F58" s="93">
         <v>3</v>
       </c>
-      <c r="G58" s="90"/>
+      <c r="G58" s="90" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" s="94"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4075,7 +4205,9 @@
       <c r="F59" s="93">
         <v>27</v>
       </c>
-      <c r="G59" s="90"/>
+      <c r="G59" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" s="94"/>
     </row>
     <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4097,7 +4229,9 @@
       <c r="F60" s="93">
         <v>7</v>
       </c>
-      <c r="G60" s="90"/>
+      <c r="G60" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H60" s="94"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4119,7 +4253,9 @@
       <c r="F61" s="93">
         <v>3</v>
       </c>
-      <c r="G61" s="90"/>
+      <c r="G61" s="90" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" s="94"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,7 +4277,9 @@
       <c r="F62" s="93">
         <v>2</v>
       </c>
-      <c r="G62" s="90"/>
+      <c r="G62" s="90" t="s">
+        <v>84</v>
+      </c>
       <c r="H62" s="94"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4163,7 +4301,9 @@
       <c r="F63" s="94">
         <v>1</v>
       </c>
-      <c r="G63" s="101"/>
+      <c r="G63" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="H63" s="101"/>
     </row>
     <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4185,7 +4325,9 @@
       <c r="F64" s="94">
         <v>0.5</v>
       </c>
-      <c r="G64" s="101"/>
+      <c r="G64" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="H64" s="101"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,7 +4349,9 @@
       <c r="F65" s="94">
         <v>95</v>
       </c>
-      <c r="G65" s="101"/>
+      <c r="G65" s="101" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" s="101"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4229,7 +4373,9 @@
       <c r="F66" s="94">
         <v>2</v>
       </c>
-      <c r="G66" s="101"/>
+      <c r="G66" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="H66" s="101"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4251,7 +4397,9 @@
       <c r="F67" s="94">
         <v>1</v>
       </c>
-      <c r="G67" s="101"/>
+      <c r="G67" s="101" t="s">
+        <v>81</v>
+      </c>
       <c r="H67" s="101"/>
     </row>
     <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4273,7 +4421,9 @@
       <c r="F68" s="94">
         <v>1</v>
       </c>
-      <c r="G68" s="101"/>
+      <c r="G68" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="H68" s="101"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4295,7 +4445,9 @@
       <c r="F69" s="94">
         <v>1</v>
       </c>
-      <c r="G69" s="101"/>
+      <c r="G69" s="101" t="s">
+        <v>84</v>
+      </c>
       <c r="H69" s="101"/>
     </row>
     <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4317,7 +4469,9 @@
       <c r="F70" s="94">
         <v>5</v>
       </c>
-      <c r="G70" s="101"/>
+      <c r="G70" s="101" t="s">
+        <v>81</v>
+      </c>
       <c r="H70" s="101"/>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4339,10 +4493,15 @@
       <c r="F71" s="94">
         <v>0.5</v>
       </c>
-      <c r="G71" s="101"/>
+      <c r="G71" s="101" t="s">
+        <v>81</v>
+      </c>
       <c r="H71" s="101"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IO71">
+    <sortCondition ref="G2:G71"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -4387,36 +4546,36 @@
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="117" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="114" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="111" t="s">
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="108" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="105" t="s">
+      <c r="R1" s="110"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="108"/>
       <c r="W1" s="13"/>
       <c r="X1" s="14"/>
     </row>
@@ -18102,17 +18261,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="122"/>
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
@@ -18786,14 +18945,14 @@
       <c r="A1" s="82"/>
       <c r="B1" s="82"/>
       <c r="C1" s="83"/>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="123" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="124"/>
+      <c r="G1" s="125"/>
       <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
